--- a/biology/Médecine/Pablo_José_Cámbar/Pablo_José_Cámbar.xlsx
+++ b/biology/Médecine/Pablo_José_Cámbar/Pablo_José_Cámbar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pablo_Jos%C3%A9_C%C3%A1mbar</t>
+          <t>Pablo_José_Cámbar</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pablo José Cámbar (né à Tegucigalpa au Honduras le 22 mars 1943, et mort le 25 avril 2021) est un médecin, académique et chercheur hondurien[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pablo José Cámbar (né à Tegucigalpa au Honduras le 22 mars 1943, et mort le 25 avril 2021) est un médecin, académique et chercheur hondurien.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pablo_Jos%C3%A9_C%C3%A1mbar</t>
+          <t>Pablo_José_Cámbar</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est né à Tegucigalpa, au Honduras le 22 mars 1943. Titulaire d'un Master en Sciences de l'Université de Pennsylvanie en 1970, il est le père d'Ingrid Jaqueline Cámbar Gonzales, biologiste et chercheuse scientifique de l'Université Nationale Autonome du Honduras.
-Il est mort le 25 avril 2021, à Tegucigalpa, des complications de la COVID-19[2].
+Il est mort le 25 avril 2021, à Tegucigalpa, des complications de la COVID-19.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pablo_Jos%C3%A9_C%C3%A1mbar</t>
+          <t>Pablo_José_Cámbar</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Œuvres publiées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bronchopulmonary and Gastrointestinal Effects of Lobeline (1968)
 Pathologic Physiology and Chemotherapy of Plasmodium Berghei (1969)
@@ -625,7 +641,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pablo_Jos%C3%A9_C%C3%A1mbar</t>
+          <t>Pablo_José_Cámbar</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -643,9 +659,11 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix National des Sciences "José Cecilio de la Vallée" (1989)[3]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Prix National des Sciences "José Cecilio de la Vallée" (1989)</t>
         </is>
       </c>
     </row>
